--- a/Data/EC/NIT-9002072137.xlsx
+++ b/Data/EC/NIT-9002072137.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C34EE8D3-2794-4967-9B88-2B728C0DC4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9459ABBC-C754-437D-AB46-B6CF2841F7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B50D729-D277-42E4-A0D8-6E5828E6B95A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22F5CC08-A2B2-475A-8244-D6F85DEABB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,214 +71,214 @@
     <t>DAVID ELVER FLOREZ HERRERA</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -377,7 +377,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -390,9 +392,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -592,23 +592,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,10 +636,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +692,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4118FB7-AFEA-5F3F-C467-C4EA285B5E5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6708E8-904D-0BC9-6226-61EB5996E1BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E02B9-00AB-4E75-8A3A-23420D47B2B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D60AE0-73AF-4552-B0A7-54580B86C200}">
   <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1221,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28124</v>
+        <v>27580</v>
       </c>
       <c r="G16" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1244,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G17" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1267,10 +1267,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G18" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1290,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G19" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1313,10 +1313,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G20" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1336,10 +1336,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G21" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1359,10 +1359,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G22" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1382,10 +1382,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G23" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1405,10 +1405,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G24" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1428,10 +1428,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G25" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1451,10 +1451,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G26" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1474,10 +1474,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G27" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1497,10 +1497,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G28" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1520,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G29" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1543,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G30" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1566,10 +1566,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G31" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1589,10 +1589,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G32" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1612,10 +1612,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G33" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1635,10 +1635,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G34" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1658,10 +1658,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G35" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1684,7 +1684,7 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1707,7 +1707,7 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1730,7 +1730,7 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1753,7 +1753,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1776,7 +1776,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1799,7 +1799,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1822,7 +1822,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1845,7 +1845,7 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1868,7 +1868,7 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1891,7 +1891,7 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1914,7 +1914,7 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1937,7 +1937,7 @@
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1960,7 +1960,7 @@
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1983,7 +1983,7 @@
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2006,7 +2006,7 @@
         <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2029,7 +2029,7 @@
         <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2052,7 +2052,7 @@
         <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2075,7 +2075,7 @@
         <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2098,7 +2098,7 @@
         <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2121,7 +2121,7 @@
         <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2144,7 +2144,7 @@
         <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2167,7 +2167,7 @@
         <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2190,7 +2190,7 @@
         <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2213,7 +2213,7 @@
         <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2236,7 +2236,7 @@
         <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2259,7 +2259,7 @@
         <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2282,7 +2282,7 @@
         <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2305,7 +2305,7 @@
         <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2328,7 +2328,7 @@
         <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2351,7 +2351,7 @@
         <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2371,10 +2371,10 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2394,10 +2394,10 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2417,10 +2417,10 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2440,10 +2440,10 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2463,10 +2463,10 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2486,10 +2486,10 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2509,10 +2509,10 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2532,10 +2532,10 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2555,10 +2555,10 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2578,10 +2578,10 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2601,10 +2601,10 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2624,10 +2624,10 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2647,10 +2647,10 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2670,10 +2670,10 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2693,10 +2693,10 @@
         <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2716,10 +2716,10 @@
         <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2739,10 +2739,10 @@
         <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2762,10 +2762,10 @@
         <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2785,10 +2785,10 @@
         <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2808,10 +2808,10 @@
         <v>80</v>
       </c>
       <c r="F85" s="24">
-        <v>27580</v>
+        <v>28124</v>
       </c>
       <c r="G85" s="24">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
